--- a/data_matkul.xlsx
+++ b/data_matkul.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Data Matakuliah</t>
   </si>
@@ -35,7 +35,13 @@
     <t>SKS</t>
   </si>
   <si>
+    <t>D4H8ks</t>
+  </si>
+  <si>
     <t>Matematika</t>
+  </si>
+  <si>
+    <t>B indonesia</t>
   </si>
 </sst>
 </file>
@@ -375,7 +381,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -412,11 +418,28 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
